--- a/Dokumentation/Excel-Dateien/Anforderungskatalog.xlsx
+++ b/Dokumentation/Excel-Dateien/Anforderungskatalog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Anforderung</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Tool, welches JavaScript als Serversprache auszuführt um JavaScript Applikationen zu entwickeln</t>
-  </si>
-  <si>
-    <t>Entwickler – Server</t>
   </si>
   <si>
     <t>Express Webframework</t>
@@ -354,7 +351,7 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,13 +401,13 @@
     <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="11" t="n">
         <v>1</v>
@@ -419,13 +416,13 @@
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -434,13 +431,13 @@
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>1</v>
@@ -449,13 +446,13 @@
     <row r="6" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="13" t="n">
         <v>1</v>
@@ -464,13 +461,13 @@
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>1</v>
@@ -478,16 +475,16 @@
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="11" t="n">
         <v>1</v>
@@ -496,13 +493,13 @@
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>1</v>
@@ -511,13 +508,13 @@
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>1</v>
@@ -526,13 +523,13 @@
     <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>1</v>
@@ -540,16 +537,16 @@
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>1</v>
@@ -557,16 +554,16 @@
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>2</v>
@@ -574,14 +571,14 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>2</v>
@@ -589,16 +586,16 @@
     </row>
     <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>2</v>
@@ -606,13 +603,13 @@
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="n">
@@ -629,7 +626,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="71" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="77" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
